--- a/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HIBURAN.xlsx
+++ b/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HIBURAN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najib\Downloads\TemplateUpload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Royan\source\repos\MonPDReborn\MonPDReborn\wwwroot\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644892B-82E2-472A-ABF2-C7468AC568BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF785EE-1EFF-4CC6-BDEB-12BBEFE42A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49FC2E55-1188-4735-B496-95684A9D665C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49FC2E55-1188-4735-B496-95684A9D665C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NOP</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>OMZET_BULAN</t>
+  </si>
+  <si>
+    <t>POTENSI_PAJAK_TAHUN</t>
   </si>
 </sst>
 </file>
@@ -461,18 +464,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S11:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -512,10 +515,12 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -532,7 +537,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -549,7 +554,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -566,7 +571,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -583,7 +588,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -600,7 +605,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -617,7 +622,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -634,7 +639,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -651,7 +656,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -668,7 +673,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -685,7 +690,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -702,7 +707,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -719,7 +724,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -736,7 +741,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -753,7 +758,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -770,7 +775,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -787,7 +792,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -804,7 +809,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -821,7 +826,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -838,7 +843,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -855,7 +860,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -872,7 +877,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -889,7 +894,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -906,7 +911,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -923,7 +928,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -940,7 +945,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -957,7 +962,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -974,7 +979,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -991,7 +996,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1008,7 +1013,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1025,7 +1030,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1042,7 +1047,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1059,7 +1064,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1076,7 +1081,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1093,7 +1098,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1110,7 +1115,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1127,7 +1132,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1144,7 +1149,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1161,7 +1166,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1178,7 +1183,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1195,7 +1200,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1212,7 +1217,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1229,7 +1234,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1246,7 +1251,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1263,7 +1268,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1280,7 +1285,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1297,7 +1302,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1314,7 +1319,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1331,7 +1336,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1348,7 +1353,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1365,7 +1370,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1382,7 +1387,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1399,7 +1404,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1416,7 +1421,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1433,7 +1438,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1450,7 +1455,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1467,7 +1472,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1484,7 +1489,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1501,7 +1506,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1518,7 +1523,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1535,7 +1540,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1552,7 +1557,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1569,7 +1574,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1586,7 +1591,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1603,7 +1608,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1620,7 +1625,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1637,7 +1642,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1654,7 +1659,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1671,7 +1676,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1688,7 +1693,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1705,7 +1710,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1722,7 +1727,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1739,7 +1744,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1756,7 +1761,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1773,7 +1778,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1790,7 +1795,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1807,7 +1812,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1824,7 +1829,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1841,7 +1846,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1858,7 +1863,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1875,7 +1880,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1892,7 +1897,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1909,7 +1914,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1926,7 +1931,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1943,7 +1948,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1960,7 +1965,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1977,7 +1982,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1994,7 +1999,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2011,7 +2016,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2028,7 +2033,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2045,7 +2050,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2062,7 +2067,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2079,7 +2084,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2096,7 +2101,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2113,7 +2118,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2130,7 +2135,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2147,7 +2152,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2164,7 +2169,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2181,7 +2186,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2198,7 +2203,7 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2215,7 +2220,7 @@
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2232,7 +2237,7 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2249,7 +2254,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2266,7 +2271,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2283,7 +2288,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2300,7 +2305,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2317,7 +2322,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2334,7 +2339,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2351,7 +2356,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2368,7 +2373,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2385,7 +2390,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2402,7 +2407,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2419,7 +2424,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2436,7 +2441,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2453,7 +2458,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2470,7 +2475,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2487,7 +2492,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2504,7 +2509,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2521,7 +2526,7 @@
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2538,7 +2543,7 @@
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2555,7 +2560,7 @@
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2572,7 +2577,7 @@
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2589,7 +2594,7 @@
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2606,7 +2611,7 @@
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2623,7 +2628,7 @@
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2640,7 +2645,7 @@
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2657,7 +2662,7 @@
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2674,7 +2679,7 @@
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2691,7 +2696,7 @@
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2708,7 +2713,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2725,7 +2730,7 @@
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2742,7 +2747,7 @@
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2759,7 +2764,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2776,7 +2781,7 @@
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2793,7 +2798,7 @@
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2810,7 +2815,7 @@
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2827,7 +2832,7 @@
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2844,7 +2849,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2861,7 +2866,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2878,7 +2883,7 @@
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2895,7 +2900,7 @@
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2912,7 +2917,7 @@
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2929,7 +2934,7 @@
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2946,7 +2951,7 @@
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2963,7 +2968,7 @@
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2980,7 +2985,7 @@
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2997,7 +3002,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3014,7 +3019,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3031,7 +3036,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3048,7 +3053,7 @@
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3065,7 +3070,7 @@
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3082,7 +3087,7 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3099,7 +3104,7 @@
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3116,7 +3121,7 @@
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3133,7 +3138,7 @@
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3150,7 +3155,7 @@
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3167,7 +3172,7 @@
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3184,7 +3189,7 @@
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3201,7 +3206,7 @@
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3218,7 +3223,7 @@
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3235,7 +3240,7 @@
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3252,7 +3257,7 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3269,7 +3274,7 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3286,7 +3291,7 @@
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3303,7 +3308,7 @@
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3320,7 +3325,7 @@
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3337,7 +3342,7 @@
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3354,7 +3359,7 @@
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3371,7 +3376,7 @@
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3388,7 +3393,7 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3405,7 +3410,7 @@
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3422,7 +3427,7 @@
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3439,7 +3444,7 @@
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3456,7 +3461,7 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3473,7 +3478,7 @@
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3490,7 +3495,7 @@
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3507,7 +3512,7 @@
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3524,7 +3529,7 @@
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3541,7 +3546,7 @@
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3558,7 +3563,7 @@
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3575,7 +3580,7 @@
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3592,7 +3597,7 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3609,7 +3614,7 @@
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3626,7 +3631,7 @@
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3643,7 +3648,7 @@
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3660,7 +3665,7 @@
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3677,7 +3682,7 @@
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3694,7 +3699,7 @@
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3711,7 +3716,7 @@
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3728,7 +3733,7 @@
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3745,7 +3750,7 @@
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3762,7 +3767,7 @@
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3779,7 +3784,7 @@
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3796,7 +3801,7 @@
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3813,7 +3818,7 @@
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3830,7 +3835,7 @@
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3847,7 +3852,7 @@
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3864,7 +3869,7 @@
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3881,7 +3886,7 @@
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3898,7 +3903,7 @@
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3915,7 +3920,7 @@
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3932,7 +3937,7 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3949,7 +3954,7 @@
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3966,7 +3971,7 @@
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3983,7 +3988,7 @@
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4000,7 +4005,7 @@
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4017,7 +4022,7 @@
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4034,7 +4039,7 @@
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4051,7 +4056,7 @@
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4068,7 +4073,7 @@
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4085,7 +4090,7 @@
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -4102,7 +4107,7 @@
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -4119,7 +4124,7 @@
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -4136,7 +4141,7 @@
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4153,7 +4158,7 @@
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4170,7 +4175,7 @@
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4187,7 +4192,7 @@
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4204,7 +4209,7 @@
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4221,7 +4226,7 @@
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4238,7 +4243,7 @@
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4255,7 +4260,7 @@
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4272,7 +4277,7 @@
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4289,7 +4294,7 @@
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4306,7 +4311,7 @@
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4323,7 +4328,7 @@
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4340,7 +4345,7 @@
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4357,7 +4362,7 @@
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4374,7 +4379,7 @@
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4391,7 +4396,7 @@
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4408,7 +4413,7 @@
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4425,7 +4430,7 @@
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4442,7 +4447,7 @@
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4459,7 +4464,7 @@
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4476,7 +4481,7 @@
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4493,7 +4498,7 @@
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4510,7 +4515,7 @@
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4527,7 +4532,7 @@
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4544,7 +4549,7 @@
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4561,7 +4566,7 @@
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4578,7 +4583,7 @@
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4595,7 +4600,7 @@
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -4612,7 +4617,7 @@
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -4629,7 +4634,7 @@
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4646,7 +4651,7 @@
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -4663,7 +4668,7 @@
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4680,7 +4685,7 @@
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4697,7 +4702,7 @@
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4714,7 +4719,7 @@
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4731,7 +4736,7 @@
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4748,7 +4753,7 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4765,7 +4770,7 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4782,7 +4787,7 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4799,7 +4804,7 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4816,7 +4821,7 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4833,7 +4838,7 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4850,7 +4855,7 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4867,7 +4872,7 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4884,7 +4889,7 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4901,7 +4906,7 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4918,7 +4923,7 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4935,7 +4940,7 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4952,7 +4957,7 @@
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4969,7 +4974,7 @@
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4986,7 +4991,7 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -5003,7 +5008,7 @@
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -5020,7 +5025,7 @@
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -5037,7 +5042,7 @@
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -5054,7 +5059,7 @@
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -5071,7 +5076,7 @@
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -5088,7 +5093,7 @@
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -5105,7 +5110,7 @@
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -5122,7 +5127,7 @@
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -5139,7 +5144,7 @@
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -5156,7 +5161,7 @@
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -5173,7 +5178,7 @@
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -5190,7 +5195,7 @@
       <c r="N276" s="3"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -5207,7 +5212,7 @@
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -5224,7 +5229,7 @@
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -5241,7 +5246,7 @@
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -5258,7 +5263,7 @@
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5275,7 +5280,7 @@
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5292,7 +5297,7 @@
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -5309,7 +5314,7 @@
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -5326,7 +5331,7 @@
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5343,7 +5348,7 @@
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5360,7 +5365,7 @@
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5377,7 +5382,7 @@
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5394,7 +5399,7 @@
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -5411,7 +5416,7 @@
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -5428,7 +5433,7 @@
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -5445,7 +5450,7 @@
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -5462,7 +5467,7 @@
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -5479,7 +5484,7 @@
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -5496,7 +5501,7 @@
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -5513,7 +5518,7 @@
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -5530,7 +5535,7 @@
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -5547,7 +5552,7 @@
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5564,7 +5569,7 @@
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -5581,7 +5586,7 @@
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -5598,7 +5603,7 @@
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -5615,7 +5620,7 @@
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -5632,7 +5637,7 @@
       <c r="N302" s="3"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5649,7 +5654,7 @@
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5666,7 +5671,7 @@
       <c r="N304" s="3"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -5683,7 +5688,7 @@
       <c r="N305" s="3"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5700,7 +5705,7 @@
       <c r="N306" s="3"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5717,7 +5722,7 @@
       <c r="N307" s="3"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5734,7 +5739,7 @@
       <c r="N308" s="3"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -5751,7 +5756,7 @@
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -5768,7 +5773,7 @@
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -5785,7 +5790,7 @@
       <c r="N311" s="3"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5802,7 +5807,7 @@
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5819,7 +5824,7 @@
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5836,7 +5841,7 @@
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5853,7 +5858,7 @@
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5870,7 +5875,7 @@
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5887,7 +5892,7 @@
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5904,7 +5909,7 @@
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5921,7 +5926,7 @@
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5938,7 +5943,7 @@
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5955,7 +5960,7 @@
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5972,7 +5977,7 @@
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5989,7 +5994,7 @@
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -6006,7 +6011,7 @@
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -6023,7 +6028,7 @@
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -6040,7 +6045,7 @@
       <c r="N326" s="3"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -6057,7 +6062,7 @@
       <c r="N327" s="3"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -6074,7 +6079,7 @@
       <c r="N328" s="3"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -6091,7 +6096,7 @@
       <c r="N329" s="3"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -6108,7 +6113,7 @@
       <c r="N330" s="3"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -6125,7 +6130,7 @@
       <c r="N331" s="3"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -6142,7 +6147,7 @@
       <c r="N332" s="3"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -6159,7 +6164,7 @@
       <c r="N333" s="3"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -6176,7 +6181,7 @@
       <c r="N334" s="3"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -6193,7 +6198,7 @@
       <c r="N335" s="3"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -6210,7 +6215,7 @@
       <c r="N336" s="3"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -6227,7 +6232,7 @@
       <c r="N337" s="3"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -6244,7 +6249,7 @@
       <c r="N338" s="3"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -6261,7 +6266,7 @@
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -6278,7 +6283,7 @@
       <c r="N340" s="3"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -6295,7 +6300,7 @@
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -6312,7 +6317,7 @@
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -6329,7 +6334,7 @@
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -6346,7 +6351,7 @@
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -6363,7 +6368,7 @@
       <c r="N345" s="3"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -6380,7 +6385,7 @@
       <c r="N346" s="3"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -6397,7 +6402,7 @@
       <c r="N347" s="3"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -6414,7 +6419,7 @@
       <c r="N348" s="3"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -6431,7 +6436,7 @@
       <c r="N349" s="3"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -6448,7 +6453,7 @@
       <c r="N350" s="3"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -6465,7 +6470,7 @@
       <c r="N351" s="3"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -6482,7 +6487,7 @@
       <c r="N352" s="3"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -6499,7 +6504,7 @@
       <c r="N353" s="3"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -6516,7 +6521,7 @@
       <c r="N354" s="3"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -6533,7 +6538,7 @@
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -6550,7 +6555,7 @@
       <c r="N356" s="3"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -6567,7 +6572,7 @@
       <c r="N357" s="3"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -6584,7 +6589,7 @@
       <c r="N358" s="3"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -6601,7 +6606,7 @@
       <c r="N359" s="3"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -6618,7 +6623,7 @@
       <c r="N360" s="3"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -6635,7 +6640,7 @@
       <c r="N361" s="3"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -6652,7 +6657,7 @@
       <c r="N362" s="3"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -6669,7 +6674,7 @@
       <c r="N363" s="3"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -6686,7 +6691,7 @@
       <c r="N364" s="3"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -6703,7 +6708,7 @@
       <c r="N365" s="3"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -6720,7 +6725,7 @@
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -6737,7 +6742,7 @@
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -6754,7 +6759,7 @@
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -6771,7 +6776,7 @@
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -6788,7 +6793,7 @@
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -6805,7 +6810,7 @@
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -6822,7 +6827,7 @@
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -6839,7 +6844,7 @@
       <c r="N373" s="3"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -6856,7 +6861,7 @@
       <c r="N374" s="3"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -6873,7 +6878,7 @@
       <c r="N375" s="3"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -6890,7 +6895,7 @@
       <c r="N376" s="3"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -6907,7 +6912,7 @@
       <c r="N377" s="3"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -6924,7 +6929,7 @@
       <c r="N378" s="3"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -6941,7 +6946,7 @@
       <c r="N379" s="3"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -6958,7 +6963,7 @@
       <c r="N380" s="3"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6975,7 +6980,7 @@
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6992,7 +6997,7 @@
       <c r="N382" s="3"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -7009,7 +7014,7 @@
       <c r="N383" s="3"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -7026,7 +7031,7 @@
       <c r="N384" s="3"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -7043,7 +7048,7 @@
       <c r="N385" s="3"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -7060,7 +7065,7 @@
       <c r="N386" s="3"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -7077,7 +7082,7 @@
       <c r="N387" s="3"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -7094,7 +7099,7 @@
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -7111,7 +7116,7 @@
       <c r="N389" s="3"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -7128,7 +7133,7 @@
       <c r="N390" s="3"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -7145,7 +7150,7 @@
       <c r="N391" s="3"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -7162,7 +7167,7 @@
       <c r="N392" s="3"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -7179,7 +7184,7 @@
       <c r="N393" s="3"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -7196,7 +7201,7 @@
       <c r="N394" s="3"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -7213,7 +7218,7 @@
       <c r="N395" s="3"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -7230,7 +7235,7 @@
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -7247,7 +7252,7 @@
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -7264,7 +7269,7 @@
       <c r="N398" s="3"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -7281,7 +7286,7 @@
       <c r="N399" s="3"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -7298,7 +7303,7 @@
       <c r="N400" s="3"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -7315,7 +7320,7 @@
       <c r="N401" s="3"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -7332,7 +7337,7 @@
       <c r="N402" s="3"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -7349,7 +7354,7 @@
       <c r="N403" s="3"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -7366,7 +7371,7 @@
       <c r="N404" s="3"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -7383,7 +7388,7 @@
       <c r="N405" s="3"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -7400,7 +7405,7 @@
       <c r="N406" s="3"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -7417,7 +7422,7 @@
       <c r="N407" s="3"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -7434,7 +7439,7 @@
       <c r="N408" s="3"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -7451,7 +7456,7 @@
       <c r="N409" s="3"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -7468,7 +7473,7 @@
       <c r="N410" s="3"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -7485,7 +7490,7 @@
       <c r="N411" s="3"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -7502,7 +7507,7 @@
       <c r="N412" s="3"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -7519,7 +7524,7 @@
       <c r="N413" s="3"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -7536,7 +7541,7 @@
       <c r="N414" s="3"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -7553,7 +7558,7 @@
       <c r="N415" s="3"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -7570,7 +7575,7 @@
       <c r="N416" s="3"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -7587,7 +7592,7 @@
       <c r="N417" s="3"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -7604,7 +7609,7 @@
       <c r="N418" s="3"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -7621,7 +7626,7 @@
       <c r="N419" s="3"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -7638,7 +7643,7 @@
       <c r="N420" s="3"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -7655,7 +7660,7 @@
       <c r="N421" s="3"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -7672,7 +7677,7 @@
       <c r="N422" s="3"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -7689,7 +7694,7 @@
       <c r="N423" s="3"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -7706,7 +7711,7 @@
       <c r="N424" s="3"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -7723,7 +7728,7 @@
       <c r="N425" s="3"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -7740,7 +7745,7 @@
       <c r="N426" s="3"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -7757,7 +7762,7 @@
       <c r="N427" s="3"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -7774,7 +7779,7 @@
       <c r="N428" s="3"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -7791,7 +7796,7 @@
       <c r="N429" s="3"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -7808,7 +7813,7 @@
       <c r="N430" s="3"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -7825,7 +7830,7 @@
       <c r="N431" s="3"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -7842,7 +7847,7 @@
       <c r="N432" s="3"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -7859,7 +7864,7 @@
       <c r="N433" s="3"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -7876,7 +7881,7 @@
       <c r="N434" s="3"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -7893,7 +7898,7 @@
       <c r="N435" s="3"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -7910,7 +7915,7 @@
       <c r="N436" s="3"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -7927,7 +7932,7 @@
       <c r="N437" s="3"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -7944,7 +7949,7 @@
       <c r="N438" s="3"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -7961,7 +7966,7 @@
       <c r="N439" s="3"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -7978,7 +7983,7 @@
       <c r="N440" s="3"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -7995,7 +8000,7 @@
       <c r="N441" s="3"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -8012,7 +8017,7 @@
       <c r="N442" s="3"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -8029,7 +8034,7 @@
       <c r="N443" s="3"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -8046,7 +8051,7 @@
       <c r="N444" s="3"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -8063,7 +8068,7 @@
       <c r="N445" s="3"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -8080,7 +8085,7 @@
       <c r="N446" s="3"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -8097,7 +8102,7 @@
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -8114,7 +8119,7 @@
       <c r="N448" s="3"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -8131,7 +8136,7 @@
       <c r="N449" s="3"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -8148,7 +8153,7 @@
       <c r="N450" s="3"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -8165,7 +8170,7 @@
       <c r="N451" s="3"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -8182,7 +8187,7 @@
       <c r="N452" s="3"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
